--- a/biology/Zoologie/Cystide_(zoologie)/Cystide_(zoologie).xlsx
+++ b/biology/Zoologie/Cystide_(zoologie)/Cystide_(zoologie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cystide est, chez les bryozoaires, la loge (ou « logette ») plus ou moins rigide qui abrite chaque individu[1]. Il est recouvert d'un épiderme[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cystide est, chez les bryozoaires, la loge (ou « logette ») plus ou moins rigide qui abrite chaque individu. Il est recouvert d'un épiderme.
 Tous les bryozoaires forment des structures coloniales dont l'élément de base est dit « cystide ». 
-Le premier cystide d'une colonie, ou ancestrule, se forme après la métamorphose de la larve planctonique[1] qui en est à l'origine. 
+Le premier cystide d'une colonie, ou ancestrule, se forme après la métamorphose de la larve planctonique qui en est à l'origine. 
 C'est dans cette loge que s'abrite le polypide. Ce dernier peut s'y invaginer pour s'y protéger, ou au contraire s'épanouir à l'extérieur et déployer son lophophore dans l'eau (le lophophore est l'organe principalement composé d'une couronne de tentacules ciliés - souvent disposés en éventail ou en forme de fer à cheval - qui permet au polype de capter et porter à sa bouche les microparticules alimentaires en suspension dans l'eau).
-Les cystides sont recouverts d'un épiderme, souvent fragile[2].
+Les cystides sont recouverts d'un épiderme, souvent fragile.
 </t>
         </is>
       </c>
